--- a/CantaCallao_main.xlsx
+++ b/CantaCallao_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D037BCED-5915-4EC3-994B-EE50B3E27EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90FB7F3-7DCD-43E1-8111-1F83B396C369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A67F115B-E673-4DC5-A6DE-90D84972D481}"/>
   </bookViews>
@@ -11943,7 +11943,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -12311,65 +12311,65 @@
     <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -12377,24 +12377,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12485,6 +12467,24 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -12503,10 +12503,10 @@
   <autoFilter ref="A1:E1872" xr:uid="{78473306-57F5-454C-BC72-084688A36564}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{30E8FAC9-76A3-484D-9834-378E774FF644}" name="codigo"/>
-    <tableColumn id="2" xr3:uid="{9C0FB537-0AB1-41ED-8118-8406C4C18BFB}" name="fecha" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{98E86BF5-AE3B-4975-ABE1-EFF4C69AD35B}" name="concepto" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{172AEA00-4D97-45CE-914A-E5D578CFBD4F}" name="detalle" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{14E0A0B6-A192-4737-9035-1D0FE392319E}" name="referencia" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9C0FB537-0AB1-41ED-8118-8406C4C18BFB}" name="fecha" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{98E86BF5-AE3B-4975-ABE1-EFF4C69AD35B}" name="concepto" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{172AEA00-4D97-45CE-914A-E5D578CFBD4F}" name="detalle" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{14E0A0B6-A192-4737-9035-1D0FE392319E}" name="referencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12812,7 +12812,7 @@
   <dimension ref="A1:G1872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
